--- a/output/fad.xlsx
+++ b/output/fad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -609,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ50"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +627,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,10 +736,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -829,15 +847,24 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>182373.25</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -936,15 +963,24 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>182373.25</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1043,15 +1079,24 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>143618</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1150,15 +1195,24 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>84277</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1257,15 +1311,24 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>154425</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1364,15 +1427,24 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>264908</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1471,15 +1543,24 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>74015</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1578,15 +1659,24 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>114795</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1685,15 +1775,24 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>289431</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1792,15 +1891,24 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>322278</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1899,15 +2007,24 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>1</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>12500</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2006,15 +2123,24 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>1</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>70000</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2113,15 +2239,24 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>300000</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2220,15 +2355,24 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>35000</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2327,15 +2471,24 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>35000</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2434,15 +2587,24 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>180000</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2541,15 +2703,24 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>700000</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2648,15 +2819,24 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2755,15 +2935,24 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>200000</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2862,15 +3051,24 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>183000</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2969,15 +3167,24 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>1</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>9513</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3076,15 +3283,24 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>1</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>455020.475</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3183,15 +3399,24 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>1</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>36622.21</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3290,15 +3515,24 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>1</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>276282.015</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3397,15 +3631,24 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>88599.985</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3504,15 +3747,24 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>103070</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3611,15 +3863,24 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>9513</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3718,15 +3979,24 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>455020.475</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3825,15 +4095,24 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>36622.21</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3932,15 +4211,24 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>276282.015</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4039,15 +4327,24 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>88599.985</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4146,15 +4443,24 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>1</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>103070</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4253,15 +4559,24 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>4850</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4360,15 +4675,24 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>4850</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4467,15 +4791,24 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>1</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>80000</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4574,15 +4907,24 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>277389.5</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4681,15 +5023,24 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4788,15 +5139,24 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>1</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>125500</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4895,15 +5255,24 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>1</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>4850</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5002,15 +5371,24 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>4850</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5109,15 +5487,24 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>80000</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5216,15 +5603,24 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>277389.5</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5323,15 +5719,24 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5430,15 +5835,24 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>125500</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5537,15 +5951,24 @@
         <v>0.3109852049700327</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>32284</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5644,15 +6067,24 @@
         <v>0.3109852049700327</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>1</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>60000</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5751,15 +6183,24 @@
         <v>0.3109852049700327</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>1</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>621478</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5858,15 +6299,24 @@
         <v>0.3109852049700327</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>299595</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5965,9 +6415,18 @@
         <v>0.3109852049700327</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1986</v>
       </c>
       <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>20000</v>
       </c>
     </row>

--- a/output/fad.xlsx
+++ b/output/fad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -618,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM50"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -627,7 +633,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,10 +751,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -847,24 +859,30 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI2">
+        <v>0.7218027254514015</v>
+      </c>
+      <c r="AJ2">
         <v>1986</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
       <c r="AK2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>1</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>182373.25</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -963,24 +981,30 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI3">
+        <v>0.7218027254514015</v>
+      </c>
+      <c r="AJ3">
         <v>1986</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
       <c r="AK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>182373.25</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1079,24 +1103,30 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI4">
+        <v>0.7218027254514015</v>
+      </c>
+      <c r="AJ4">
         <v>1986</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
       <c r="AK4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL4">
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>143618</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1195,24 +1225,30 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI5">
+        <v>0.7218027254514015</v>
+      </c>
+      <c r="AJ5">
         <v>1986</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>84277</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1311,24 +1347,30 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI6">
+        <v>0.7218027254514015</v>
+      </c>
+      <c r="AJ6">
         <v>1986</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
       <c r="AK6">
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>154425</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1427,24 +1469,30 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI7">
+        <v>0.7218027254514015</v>
+      </c>
+      <c r="AJ7">
         <v>1986</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7">
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>264908</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1543,24 +1591,30 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI8">
+        <v>0.7218027254514015</v>
+      </c>
+      <c r="AJ8">
         <v>1986</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
       <c r="AK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>74015</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1659,24 +1713,30 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI9">
+        <v>0.7218027254514015</v>
+      </c>
+      <c r="AJ9">
         <v>1986</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
       <c r="AK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL9">
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>114795</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1775,24 +1835,30 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI10">
+        <v>0.7218027254514015</v>
+      </c>
+      <c r="AJ10">
         <v>1986</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10">
         <v>1</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>289431</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1891,24 +1957,30 @@
         <v>0.01040374591279067</v>
       </c>
       <c r="AI11">
+        <v>0.7218027254514015</v>
+      </c>
+      <c r="AJ11">
         <v>1986</v>
       </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
       <c r="AK11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL11">
         <v>1</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>322278</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2007,24 +2079,30 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI12">
+        <v>0.624457202585445</v>
+      </c>
+      <c r="AJ12">
         <v>1986</v>
       </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
         <v>1</v>
       </c>
       <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>12500</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2123,24 +2201,30 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI13">
+        <v>0.624457202585445</v>
+      </c>
+      <c r="AJ13">
         <v>1986</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
       <c r="AK13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL13">
         <v>1</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>70000</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2239,24 +2323,30 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI14">
+        <v>0.624457202585445</v>
+      </c>
+      <c r="AJ14">
         <v>1986</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
       <c r="AK14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL14">
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>300000</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2355,24 +2445,30 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI15">
+        <v>0.624457202585445</v>
+      </c>
+      <c r="AJ15">
         <v>1986</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
       <c r="AK15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL15">
         <v>1</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>35000</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2471,24 +2567,30 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI16">
+        <v>0.624457202585445</v>
+      </c>
+      <c r="AJ16">
         <v>1986</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
       <c r="AK16">
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>35000</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2587,24 +2689,30 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI17">
+        <v>0.624457202585445</v>
+      </c>
+      <c r="AJ17">
         <v>1986</v>
       </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>180000</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2703,24 +2811,30 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI18">
+        <v>0.624457202585445</v>
+      </c>
+      <c r="AJ18">
         <v>1986</v>
       </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>700000</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2819,24 +2933,30 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI19">
+        <v>0.624457202585445</v>
+      </c>
+      <c r="AJ19">
         <v>1986</v>
       </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
       <c r="AK19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>100000</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2935,24 +3055,30 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI20">
+        <v>0.624457202585445</v>
+      </c>
+      <c r="AJ20">
         <v>1986</v>
       </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
       <c r="AK20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL20">
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>200000</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3051,24 +3177,30 @@
         <v>0.008557945785586375</v>
       </c>
       <c r="AI21">
+        <v>0.624457202585445</v>
+      </c>
+      <c r="AJ21">
         <v>1986</v>
       </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
       <c r="AK21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL21">
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>183000</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3167,24 +3299,30 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI22">
+        <v>0.58424100429534</v>
+      </c>
+      <c r="AJ22">
         <v>1986</v>
       </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
       <c r="AK22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22">
         <v>1</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>9513</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3283,24 +3421,30 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI23">
+        <v>0.58424100429534</v>
+      </c>
+      <c r="AJ23">
         <v>1986</v>
       </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
       <c r="AK23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL23">
         <v>1</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>455020.475</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3399,24 +3543,30 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI24">
+        <v>0.58424100429534</v>
+      </c>
+      <c r="AJ24">
         <v>1986</v>
       </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>1</v>
       </c>
       <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>36622.21</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3515,24 +3665,30 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI25">
+        <v>0.58424100429534</v>
+      </c>
+      <c r="AJ25">
         <v>1986</v>
       </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
       <c r="AK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>1</v>
       </c>
       <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>276282.015</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3631,24 +3787,30 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI26">
+        <v>0.58424100429534</v>
+      </c>
+      <c r="AJ26">
         <v>1986</v>
       </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
       <c r="AK26">
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>88599.985</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3747,24 +3909,30 @@
         <v>0.007695055789569884</v>
       </c>
       <c r="AI27">
+        <v>0.58424100429534</v>
+      </c>
+      <c r="AJ27">
         <v>1986</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
       <c r="AK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>1</v>
       </c>
       <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>103070</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3863,24 +4031,30 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI28">
+        <v>0.3532163620284561</v>
+      </c>
+      <c r="AJ28">
         <v>1986</v>
       </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
       <c r="AK28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28">
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>9513</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3979,24 +4153,30 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI29">
+        <v>0.3532163620284561</v>
+      </c>
+      <c r="AJ29">
         <v>1986</v>
       </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
       <c r="AK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL29">
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>455020.475</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4095,24 +4275,30 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI30">
+        <v>0.3532163620284561</v>
+      </c>
+      <c r="AJ30">
         <v>1986</v>
       </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
       <c r="AK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30">
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>36622.21</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4211,24 +4397,30 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI31">
+        <v>0.3532163620284561</v>
+      </c>
+      <c r="AJ31">
         <v>1986</v>
       </c>
-      <c r="AJ31">
-        <v>0</v>
-      </c>
       <c r="AK31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>276282.015</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4327,24 +4519,30 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI32">
+        <v>0.3532163620284561</v>
+      </c>
+      <c r="AJ32">
         <v>1986</v>
       </c>
-      <c r="AJ32">
-        <v>0</v>
-      </c>
       <c r="AK32">
         <v>0</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>88599.985</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4443,24 +4641,30 @@
         <v>0.0008751916525816192</v>
       </c>
       <c r="AI33">
+        <v>0.3532163620284561</v>
+      </c>
+      <c r="AJ33">
         <v>1986</v>
       </c>
-      <c r="AJ33">
-        <v>0</v>
-      </c>
       <c r="AK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33">
         <v>1</v>
       </c>
       <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>103070</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4559,24 +4763,30 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI34">
+        <v>0.8478105462205963</v>
+      </c>
+      <c r="AJ34">
         <v>1986</v>
       </c>
-      <c r="AJ34">
-        <v>0</v>
-      </c>
       <c r="AK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL34">
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>4850</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4675,24 +4885,30 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI35">
+        <v>0.8478105462205963</v>
+      </c>
+      <c r="AJ35">
         <v>1986</v>
       </c>
-      <c r="AJ35">
-        <v>0</v>
-      </c>
       <c r="AK35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>4850</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4791,24 +5007,30 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI36">
+        <v>0.8478105462205963</v>
+      </c>
+      <c r="AJ36">
         <v>1986</v>
       </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
       <c r="AK36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36">
         <v>1</v>
       </c>
       <c r="AM36">
+        <v>1</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>80000</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4907,24 +5129,30 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI37">
+        <v>0.8478105462205963</v>
+      </c>
+      <c r="AJ37">
         <v>1986</v>
       </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>1</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>277389.5</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5023,24 +5251,30 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI38">
+        <v>0.8478105462205963</v>
+      </c>
+      <c r="AJ38">
         <v>1986</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
-      </c>
       <c r="AK38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>1</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5139,24 +5373,30 @@
         <v>0.002528849297266795</v>
       </c>
       <c r="AI39">
+        <v>0.8478105462205963</v>
+      </c>
+      <c r="AJ39">
         <v>1986</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>1</v>
       </c>
       <c r="AM39">
+        <v>1</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>125500</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5255,24 +5495,30 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
         <v>1986</v>
       </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
       <c r="AK40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL40">
         <v>1</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>4850</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5371,24 +5617,30 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
         <v>1986</v>
       </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
       <c r="AK41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>4850</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5487,24 +5739,30 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
         <v>1986</v>
       </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
       <c r="AK42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>1</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>80000</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5603,24 +5861,30 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
         <v>1986</v>
       </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
       <c r="AK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL43">
         <v>1</v>
       </c>
       <c r="AM43">
+        <v>1</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>277389.5</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5719,24 +5983,30 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
         <v>1986</v>
       </c>
-      <c r="AJ44">
-        <v>0</v>
-      </c>
       <c r="AK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>1</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>10000</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5835,24 +6105,30 @@
         <v>0.02695155367933985</v>
       </c>
       <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
         <v>1986</v>
       </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>1</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>125500</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5951,24 +6227,30 @@
         <v>0.3109852049700327</v>
       </c>
       <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
         <v>1986</v>
       </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
       <c r="AK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL46">
         <v>1</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>32284</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6067,24 +6349,30 @@
         <v>0.3109852049700327</v>
       </c>
       <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
         <v>1986</v>
       </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
       <c r="AK47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL47">
         <v>1</v>
       </c>
       <c r="AM47">
+        <v>1</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>60000</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6183,24 +6471,30 @@
         <v>0.3109852049700327</v>
       </c>
       <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
         <v>1986</v>
       </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
       <c r="AK48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>1</v>
       </c>
       <c r="AM48">
+        <v>1</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>621478</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6299,24 +6593,30 @@
         <v>0.3109852049700327</v>
       </c>
       <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
         <v>1986</v>
       </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
       <c r="AK49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL49">
         <v>1</v>
       </c>
       <c r="AM49">
+        <v>1</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>299595</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6415,18 +6715,24 @@
         <v>0.3109852049700327</v>
       </c>
       <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
         <v>1986</v>
       </c>
-      <c r="AJ50">
-        <v>0</v>
-      </c>
       <c r="AK50">
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>20000</v>
       </c>
     </row>

--- a/output/fad.xlsx
+++ b/output/fad.xlsx
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2710</v>
+        <v>2898.942214704482</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D4">
         <v>1500000</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D5">
         <v>1500000</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5340</v>
+        <v>5555.389721901988</v>
       </c>
       <c r="D6">
         <v>1500000</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D7">
         <v>3740000</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4070</v>
+        <v>4355.934938677345</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2860</v>
+        <v>2965.153206179127</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1860</v>
+        <v>1939.33862702996</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1570</v>
+        <v>1577.487171555845</v>
       </c>
       <c r="D14">
         <v>1500000</v>
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3060</v>
+        <v>3083.80337578809</v>
       </c>
       <c r="D15">
         <v>1500000</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5540</v>
+        <v>5660.517066940175</v>
       </c>
       <c r="D16">
         <v>1500000</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6920</v>
+        <v>6947.966251196303</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D18">
         <v>3740000</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D19">
         <v>325000</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6320</v>
+        <v>6711.616186806423</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7290</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D24">
         <v>325000</v>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3210</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D25">
         <v>351605</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>6720</v>
+        <v>6869.640636356445</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1690</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>7910</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D30">
         <v>270000</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>3350</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D31">
         <v>351605</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>6810</v>
+        <v>6796.064220835697</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1780</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4792,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>8190</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>6110</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D36">
         <v>270000</v>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D37">
         <v>2500000</v>
@@ -5158,7 +5158,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1850</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5280,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>7330</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>5970</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1910</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6012,7 +6012,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>6460</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>5810</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>3510</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>2000</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>6640</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="AL50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50">
         <v>0</v>

--- a/output/fad.xlsx
+++ b/output/fad.xlsx
@@ -2233,7 +2233,7 @@
         <v>1577.487171555845</v>
       </c>
       <c r="D14">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>143618</v>
@@ -2355,7 +2355,7 @@
         <v>3083.80337578809</v>
       </c>
       <c r="D15">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>84277</v>
@@ -2477,7 +2477,7 @@
         <v>5660.517066940175</v>
       </c>
       <c r="D16">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>154425</v>
@@ -2721,7 +2721,7 @@
         <v>5360.226632400601</v>
       </c>
       <c r="D18">
-        <v>3740000</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>264908</v>
@@ -3453,7 +3453,7 @@
         <v>5122.180090208862</v>
       </c>
       <c r="D24">
-        <v>325000</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>100000</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>9513</v>
+        <v>183000</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>455020.475</v>
+        <v>700000</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4188,7 +4188,7 @@
         <v>270000</v>
       </c>
       <c r="E30">
-        <v>36622.21</v>
+        <v>100000</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4307,10 +4307,10 @@
         <v>3212.740625904757</v>
       </c>
       <c r="D31">
-        <v>351605</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>276282.015</v>
+        <v>35000</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4432,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>88599.985</v>
+        <v>180000</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>103070</v>
+        <v>300000</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4917,7 +4917,7 @@
         <v>5412.131646018807</v>
       </c>
       <c r="D36">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>36622.21</v>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>4850</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -5530,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>4850</v>
+        <v>9513</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>80000</v>
+        <v>36622.21</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>277389.5</v>
+        <v>276282.015</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>10000</v>
+        <v>103070</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>125500</v>
+        <v>455020.475</v>
       </c>
       <c r="F45">
         <v>1</v>

--- a/output/fad.xlsx
+++ b/output/fad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -139,64 +139,7 @@
     <t>Dinero_en_el_proyecto</t>
   </si>
   <si>
-    <t>2010_guatemala</t>
-  </si>
-  <si>
-    <t>2010_honduras</t>
-  </si>
-  <si>
-    <t>2010_nicaragua</t>
-  </si>
-  <si>
-    <t>2010_el salvador</t>
-  </si>
-  <si>
-    <t>2010_republica dominicana</t>
-  </si>
-  <si>
-    <t>2010_peru</t>
-  </si>
-  <si>
-    <t>2010_ecuador</t>
-  </si>
-  <si>
-    <t>2010_bolivia</t>
-  </si>
-  <si>
-    <t>2010_colombia</t>
-  </si>
-  <si>
-    <t>2010_paraguay</t>
-  </si>
-  <si>
-    <t>2011_guatemala</t>
-  </si>
-  <si>
-    <t>2011_honduras</t>
-  </si>
-  <si>
-    <t>2011_nicaragua</t>
-  </si>
-  <si>
-    <t>2011_el salvador</t>
-  </si>
-  <si>
-    <t>2011_republica dominicana</t>
-  </si>
-  <si>
-    <t>2011_dominica</t>
-  </si>
-  <si>
-    <t>2011_peru</t>
-  </si>
-  <si>
-    <t>2011_ecuador</t>
-  </si>
-  <si>
-    <t>2011_bolivia</t>
-  </si>
-  <si>
-    <t>2011_colombia</t>
+    <t>2009_peru</t>
   </si>
   <si>
     <t>2012_colombia</t>
@@ -624,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO50"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2898.942214704482</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -787,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2200220</v>
+        <v>1962026</v>
       </c>
       <c r="K2">
-        <v>816296</v>
+        <v>1348443</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -799,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3016516</v>
+        <v>3310469</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -808,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>31713</v>
+        <v>180825</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -817,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>31713</v>
+        <v>180825</v>
       </c>
       <c r="U2">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -843,23 +786,17 @@
       <c r="AC2">
         <v>0</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
-        <v>14532818.83333333</v>
+        <v>5201043</v>
       </c>
       <c r="AG2">
-        <v>3048229</v>
+        <v>3491294</v>
       </c>
       <c r="AH2">
-        <v>0.01040374591279067</v>
+        <v>0.05179311739429564</v>
       </c>
       <c r="AI2">
-        <v>0.7218027254514015</v>
+        <v>0.5619767341278048</v>
       </c>
       <c r="AJ2">
         <v>1986</v>
@@ -877,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="AO2">
-        <v>182373.25</v>
+        <v>16400</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -888,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1904.346464968814</v>
+        <v>6911.59200404802</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -909,10 +846,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2200220</v>
+        <v>351605</v>
       </c>
       <c r="K3">
-        <v>816296</v>
+        <v>245579</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -921,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3016516</v>
+        <v>597184</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -930,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -939,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="U3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -972,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>10267085.83333333</v>
+        <v>1093204.9</v>
       </c>
       <c r="AG3">
-        <v>3048229</v>
+        <v>601815</v>
       </c>
       <c r="AH3">
-        <v>0.01040374591279067</v>
+        <v>0.007695055789569884</v>
       </c>
       <c r="AI3">
-        <v>0.7218027254514015</v>
+        <v>0.58424100429534</v>
       </c>
       <c r="AJ3">
         <v>1986</v>
@@ -999,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="AO3">
-        <v>182373.25</v>
+        <v>9513</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1010,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1503.870423231357</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D4">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1031,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2200220</v>
+        <v>351605</v>
       </c>
       <c r="K4">
-        <v>816296</v>
+        <v>245579</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1043,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3016516</v>
+        <v>597184</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1052,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -1061,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="U4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1094,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>18320809.5</v>
+        <v>623636.9</v>
       </c>
       <c r="AG4">
-        <v>3048229</v>
+        <v>601815</v>
       </c>
       <c r="AH4">
-        <v>0.01040374591279067</v>
+        <v>0.007695055789569884</v>
       </c>
       <c r="AI4">
-        <v>0.7218027254514015</v>
+        <v>0.58424100429534</v>
       </c>
       <c r="AJ4">
         <v>1986</v>
@@ -1121,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="AO4">
-        <v>143618</v>
+        <v>455020.475</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1132,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2983.242707849043</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D5">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1153,10 +1090,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2200220</v>
+        <v>351605</v>
       </c>
       <c r="K5">
-        <v>816296</v>
+        <v>245579</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1165,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3016516</v>
+        <v>597184</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1174,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1183,19 +1120,19 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="U5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X5">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -1216,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>22208778.83333333</v>
+        <v>1093204.9</v>
       </c>
       <c r="AG5">
-        <v>3048229</v>
+        <v>601815</v>
       </c>
       <c r="AH5">
-        <v>0.01040374591279067</v>
+        <v>0.007695055789569884</v>
       </c>
       <c r="AI5">
-        <v>0.7218027254514015</v>
+        <v>0.58424100429534</v>
       </c>
       <c r="AJ5">
         <v>1986</v>
@@ -1243,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="AO5">
-        <v>84277</v>
+        <v>36622.21</v>
       </c>
     </row>
     <row r="6" spans="1:41">
@@ -1254,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5555.389721901988</v>
+        <v>3156.723844635973</v>
       </c>
       <c r="D6">
-        <v>1500000</v>
+        <v>351605</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1275,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2200220</v>
+        <v>351605</v>
       </c>
       <c r="K6">
-        <v>816296</v>
+        <v>245579</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1287,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3016516</v>
+        <v>597184</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1296,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1305,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="U6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -1338,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>13056447</v>
+        <v>1353871.516666667</v>
       </c>
       <c r="AG6">
-        <v>3048229</v>
+        <v>601815</v>
       </c>
       <c r="AH6">
-        <v>0.01040374591279067</v>
+        <v>0.007695055789569884</v>
       </c>
       <c r="AI6">
-        <v>0.7218027254514015</v>
+        <v>0.58424100429534</v>
       </c>
       <c r="AJ6">
         <v>1986</v>
@@ -1365,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="AO6">
-        <v>154425</v>
+        <v>276282.015</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1376,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5082.354756663512</v>
+        <v>6869.640636356445</v>
       </c>
       <c r="D7">
-        <v>3740000</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1397,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2200220</v>
+        <v>351605</v>
       </c>
       <c r="K7">
-        <v>816296</v>
+        <v>245579</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1409,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3016516</v>
+        <v>597184</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -1418,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -1427,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="U7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1460,16 +1397,16 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>27999397</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>3048229</v>
+        <v>601815</v>
       </c>
       <c r="AH7">
-        <v>0.01040374591279067</v>
+        <v>0.007695055789569884</v>
       </c>
       <c r="AI7">
-        <v>0.7218027254514015</v>
+        <v>0.58424100429534</v>
       </c>
       <c r="AJ7">
         <v>1986</v>
@@ -1478,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="AL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7">
         <v>1</v>
       </c>
       <c r="AO7">
-        <v>264908</v>
+        <v>88599.985</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1498,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4633.590358399045</v>
+        <v>1657.651524528445</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1519,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2200220</v>
+        <v>351605</v>
       </c>
       <c r="K8">
-        <v>816296</v>
+        <v>245579</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1531,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3016516</v>
+        <v>597184</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -1540,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1549,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>31713</v>
+        <v>4631</v>
       </c>
       <c r="U8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Z8">
         <v>1</v>
@@ -1582,16 +1519,16 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>32846422</v>
+        <v>1126760.85</v>
       </c>
       <c r="AG8">
-        <v>3048229</v>
+        <v>601815</v>
       </c>
       <c r="AH8">
-        <v>0.01040374591279067</v>
+        <v>0.007695055789569884</v>
       </c>
       <c r="AI8">
-        <v>0.7218027254514015</v>
+        <v>0.58424100429534</v>
       </c>
       <c r="AJ8">
         <v>1986</v>
@@ -1609,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="AO8">
-        <v>74015</v>
+        <v>103070</v>
       </c>
     </row>
     <row r="9" spans="1:41">
@@ -1620,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1955.461557360978</v>
+        <v>7200.731056811853</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1641,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2200220</v>
+        <v>270000</v>
       </c>
       <c r="K9">
-        <v>816296</v>
+        <v>493735</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1653,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3016516</v>
+        <v>763735</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1662,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31713</v>
+        <v>669</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1671,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>31713</v>
+        <v>669</v>
       </c>
       <c r="U9">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X9">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -1704,16 +1641,16 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>38993399</v>
+        <v>747460</v>
       </c>
       <c r="AG9">
-        <v>3048229</v>
+        <v>764404</v>
       </c>
       <c r="AH9">
-        <v>0.01040374591279067</v>
+        <v>0.0008751916525816192</v>
       </c>
       <c r="AI9">
-        <v>0.7218027254514015</v>
+        <v>0.3532163620284561</v>
       </c>
       <c r="AJ9">
         <v>1986</v>
@@ -1725,13 +1662,13 @@
         <v>1</v>
       </c>
       <c r="AM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9">
         <v>1</v>
       </c>
       <c r="AO9">
-        <v>114795</v>
+        <v>9513</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1742,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6336.709213679884</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1763,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>2200220</v>
+        <v>270000</v>
       </c>
       <c r="K10">
-        <v>816296</v>
+        <v>493735</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1775,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3016516</v>
+        <v>763735</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -1784,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31713</v>
+        <v>669</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1793,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>31713</v>
+        <v>669</v>
       </c>
       <c r="U10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X10">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z10">
         <v>1</v>
@@ -1826,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>25548911</v>
+        <v>747460</v>
       </c>
       <c r="AG10">
-        <v>3048229</v>
+        <v>764404</v>
       </c>
       <c r="AH10">
-        <v>0.01040374591279067</v>
+        <v>0.0008751916525816192</v>
       </c>
       <c r="AI10">
-        <v>0.7218027254514015</v>
+        <v>0.3532163620284561</v>
       </c>
       <c r="AJ10">
         <v>1986</v>
@@ -1847,13 +1784,13 @@
         <v>1</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10">
         <v>1</v>
       </c>
       <c r="AO10">
-        <v>289431</v>
+        <v>455020.475</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1864,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4355.934938677345</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>270000</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1885,10 +1822,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2200220</v>
+        <v>270000</v>
       </c>
       <c r="K11">
-        <v>816296</v>
+        <v>493735</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1897,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3016516</v>
+        <v>763735</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1906,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31713</v>
+        <v>669</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1915,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>31713</v>
+        <v>669</v>
       </c>
       <c r="U11">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="V11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X11">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1948,16 +1885,16 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>10672204</v>
+        <v>747460</v>
       </c>
       <c r="AG11">
-        <v>3048229</v>
+        <v>764404</v>
       </c>
       <c r="AH11">
-        <v>0.01040374591279067</v>
+        <v>0.0008751916525816192</v>
       </c>
       <c r="AI11">
-        <v>0.7218027254514015</v>
+        <v>0.3532163620284561</v>
       </c>
       <c r="AJ11">
         <v>1986</v>
@@ -1969,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11">
         <v>1</v>
       </c>
       <c r="AO11">
-        <v>322278</v>
+        <v>36622.21</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -1986,13 +1923,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2965.153206179127</v>
+        <v>3212.740625904757</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>182373.25</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2007,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>325000</v>
+        <v>270000</v>
       </c>
       <c r="K12">
-        <v>190998</v>
+        <v>493735</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -2019,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>515998</v>
+        <v>763735</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2028,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4454</v>
+        <v>669</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -2037,19 +1974,19 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4454</v>
+        <v>669</v>
       </c>
       <c r="U12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V12">
         <v>7</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z12">
         <v>1</v>
@@ -2070,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>2140362</v>
+        <v>747460</v>
       </c>
       <c r="AG12">
-        <v>520452</v>
+        <v>764404</v>
       </c>
       <c r="AH12">
-        <v>0.008557945785586375</v>
+        <v>0.0008751916525816192</v>
       </c>
       <c r="AI12">
-        <v>0.624457202585445</v>
+        <v>0.3532163620284561</v>
       </c>
       <c r="AJ12">
         <v>1986</v>
@@ -2091,13 +2028,13 @@
         <v>1</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>12500</v>
+        <v>276282.015</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2108,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1939.33862702996</v>
+        <v>6796.064220835697</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>182373.25</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2129,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>325000</v>
+        <v>270000</v>
       </c>
       <c r="K13">
-        <v>190998</v>
+        <v>493735</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -2141,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>515998</v>
+        <v>763735</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2150,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4454</v>
+        <v>669</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -2159,19 +2096,19 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4454</v>
+        <v>669</v>
       </c>
       <c r="U13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V13">
         <v>7</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z13">
         <v>1</v>
@@ -2192,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>2070562</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>520452</v>
+        <v>764404</v>
       </c>
       <c r="AH13">
-        <v>0.008557945785586375</v>
+        <v>0.0008751916525816192</v>
       </c>
       <c r="AI13">
-        <v>0.624457202585445</v>
+        <v>0.3532163620284561</v>
       </c>
       <c r="AJ13">
         <v>1986</v>
@@ -2210,16 +2147,16 @@
         <v>0</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>1</v>
       </c>
       <c r="AO13">
-        <v>70000</v>
+        <v>88599.985</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2230,13 +2167,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1577.487171555845</v>
+        <v>1716.389195271215</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>143618</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2251,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>325000</v>
+        <v>270000</v>
       </c>
       <c r="K14">
-        <v>190998</v>
+        <v>493735</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -2263,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>515998</v>
+        <v>763735</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -2272,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4454</v>
+        <v>669</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -2281,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>4454</v>
+        <v>669</v>
       </c>
       <c r="U14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V14">
         <v>7</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z14">
         <v>1</v>
@@ -2314,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>2121035</v>
+        <v>747460</v>
       </c>
       <c r="AG14">
-        <v>520452</v>
+        <v>764404</v>
       </c>
       <c r="AH14">
-        <v>0.008557945785586375</v>
+        <v>0.0008751916525816192</v>
       </c>
       <c r="AI14">
-        <v>0.624457202585445</v>
+        <v>0.3532163620284561</v>
       </c>
       <c r="AJ14">
         <v>1986</v>
@@ -2341,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="AO14">
-        <v>300000</v>
+        <v>103070</v>
       </c>
     </row>
     <row r="15" spans="1:41">
@@ -2352,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3083.80337578809</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>84277</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2373,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>325000</v>
+        <v>2500000</v>
       </c>
       <c r="K15">
-        <v>190998</v>
+        <v>441315</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2385,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>515998</v>
+        <v>2941315</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -2394,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -2403,19 +2340,19 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="U15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V15">
         <v>7</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z15">
         <v>1</v>
@@ -2436,16 +2373,16 @@
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>2407765</v>
+        <v>10602689</v>
       </c>
       <c r="AG15">
-        <v>520452</v>
+        <v>2948772</v>
       </c>
       <c r="AH15">
-        <v>0.008557945785586375</v>
+        <v>0.002528849297266795</v>
       </c>
       <c r="AI15">
-        <v>0.624457202585445</v>
+        <v>0.8478105462205963</v>
       </c>
       <c r="AJ15">
         <v>1986</v>
@@ -2457,13 +2394,13 @@
         <v>1</v>
       </c>
       <c r="AM15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN15">
         <v>1</v>
       </c>
       <c r="AO15">
-        <v>35000</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2474,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5660.517066940175</v>
+        <v>7449.08671983612</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>154425</v>
+        <v>9513</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2495,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>325000</v>
+        <v>2500000</v>
       </c>
       <c r="K16">
-        <v>190998</v>
+        <v>441315</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2507,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>515998</v>
+        <v>2941315</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -2516,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="R16">
         <v>0</v>
@@ -2525,19 +2462,19 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="U16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V16">
         <v>7</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z16">
         <v>1</v>
@@ -2558,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>1979992</v>
+        <v>10535466</v>
       </c>
       <c r="AG16">
-        <v>520452</v>
+        <v>2948772</v>
       </c>
       <c r="AH16">
-        <v>0.008557945785586375</v>
+        <v>0.002528849297266795</v>
       </c>
       <c r="AI16">
-        <v>0.624457202585445</v>
+        <v>0.8478105462205963</v>
       </c>
       <c r="AJ16">
         <v>1986</v>
@@ -2579,13 +2516,13 @@
         <v>1</v>
       </c>
       <c r="AM16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16">
         <v>1</v>
       </c>
       <c r="AO16">
-        <v>35000</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="17" spans="1:41">
@@ -2596,13 +2533,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6947.966251196303</v>
+        <v>5412.131646018807</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>36622.21</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2617,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>325000</v>
+        <v>2500000</v>
       </c>
       <c r="K17">
-        <v>190998</v>
+        <v>441315</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2629,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>515998</v>
+        <v>2941315</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -2638,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2647,19 +2584,19 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="U17">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V17">
         <v>7</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -2680,16 +2617,16 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>6011154</v>
       </c>
       <c r="AG17">
-        <v>520452</v>
+        <v>2948772</v>
       </c>
       <c r="AH17">
-        <v>0.008557945785586375</v>
+        <v>0.002528849297266795</v>
       </c>
       <c r="AI17">
-        <v>0.624457202585445</v>
+        <v>0.8478105462205963</v>
       </c>
       <c r="AJ17">
         <v>1986</v>
@@ -2698,16 +2635,16 @@
         <v>0</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17">
         <v>1</v>
       </c>
       <c r="AO17">
-        <v>180000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2718,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5360.226632400601</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="E18">
-        <v>264908</v>
+        <v>276282.015</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2739,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>325000</v>
+        <v>2500000</v>
       </c>
       <c r="K18">
-        <v>190998</v>
+        <v>441315</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2751,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>515998</v>
+        <v>2941315</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2760,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="R18">
         <v>0</v>
@@ -2769,19 +2706,19 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V18">
         <v>7</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -2802,16 +2739,16 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>2304887</v>
+        <v>11105000</v>
       </c>
       <c r="AG18">
-        <v>520452</v>
+        <v>2948772</v>
       </c>
       <c r="AH18">
-        <v>0.008557945785586375</v>
+        <v>0.002528849297266795</v>
       </c>
       <c r="AI18">
-        <v>0.624457202585445</v>
+        <v>0.8478105462205963</v>
       </c>
       <c r="AJ18">
         <v>1986</v>
@@ -2829,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="AO18">
-        <v>700000</v>
+        <v>277389.5</v>
       </c>
     </row>
     <row r="19" spans="1:41">
@@ -2840,13 +2777,13 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4921.848409120176</v>
+        <v>1775.027517189621</v>
       </c>
       <c r="D19">
-        <v>325000</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>74015</v>
+        <v>103070</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2861,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>325000</v>
+        <v>2500000</v>
       </c>
       <c r="K19">
-        <v>190998</v>
+        <v>441315</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2873,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>515998</v>
+        <v>2941315</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -2882,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -2891,19 +2828,19 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="U19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V19">
         <v>7</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -2924,16 +2861,16 @@
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>2299220</v>
+        <v>8243214</v>
       </c>
       <c r="AG19">
-        <v>520452</v>
+        <v>2948772</v>
       </c>
       <c r="AH19">
-        <v>0.008557945785586375</v>
+        <v>0.002528849297266795</v>
       </c>
       <c r="AI19">
-        <v>0.624457202585445</v>
+        <v>0.8478105462205963</v>
       </c>
       <c r="AJ19">
         <v>1986</v>
@@ -2951,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="AO19">
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2962,13 +2899,13 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2024.117324382548</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>114795</v>
+        <v>455020.475</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2983,10 +2920,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>325000</v>
+        <v>2500000</v>
       </c>
       <c r="K20">
-        <v>190998</v>
+        <v>441315</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2995,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>515998</v>
+        <v>2941315</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -3004,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="R20">
         <v>0</v>
@@ -3013,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4454</v>
+        <v>7457</v>
       </c>
       <c r="U20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V20">
         <v>7</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -3046,16 +2983,16 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>2169360</v>
+        <v>6615978</v>
       </c>
       <c r="AG20">
-        <v>520452</v>
+        <v>2948772</v>
       </c>
       <c r="AH20">
-        <v>0.008557945785586375</v>
+        <v>0.002528849297266795</v>
       </c>
       <c r="AI20">
-        <v>0.624457202585445</v>
+        <v>0.8478105462205963</v>
       </c>
       <c r="AJ20">
         <v>1986</v>
@@ -3073,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="AO20">
-        <v>200000</v>
+        <v>125500</v>
       </c>
     </row>
     <row r="21" spans="1:41">
@@ -3084,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6711.616186806423</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>289431</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3105,10 +3042,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>325000</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>190998</v>
+        <v>371795</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -3117,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>515998</v>
+        <v>371795</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3126,25 +3063,25 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>4454</v>
+        <v>598</v>
       </c>
       <c r="R21">
         <v>0</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="T21">
-        <v>4454</v>
+        <v>10298</v>
       </c>
       <c r="U21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X21">
         <v>16</v>
@@ -3168,16 +3105,16 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>1772730</v>
+        <v>346667</v>
       </c>
       <c r="AG21">
-        <v>520452</v>
+        <v>382093</v>
       </c>
       <c r="AH21">
-        <v>0.008557945785586375</v>
+        <v>0.02695155367933985</v>
       </c>
       <c r="AI21">
-        <v>0.624457202585445</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
         <v>1986</v>
@@ -3195,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="AO21">
-        <v>183000</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="22" spans="1:41">
@@ -3206,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6911.59200404802</v>
+        <v>7580.275568826287</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>183000</v>
+        <v>9513</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3227,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>351605</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>245579</v>
+        <v>371795</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3239,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>597184</v>
+        <v>371795</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -3248,28 +3185,28 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>4631</v>
+        <v>598</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="T22">
-        <v>4631</v>
+        <v>10298</v>
       </c>
       <c r="U22">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X22">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z22">
         <v>1</v>
@@ -3290,16 +3227,16 @@
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>1093204.9</v>
+        <v>1417472</v>
       </c>
       <c r="AG22">
-        <v>601815</v>
+        <v>382093</v>
       </c>
       <c r="AH22">
-        <v>0.007695055789569884</v>
+        <v>0.02695155367933985</v>
       </c>
       <c r="AI22">
-        <v>0.58424100429534</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
         <v>1986</v>
@@ -3317,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="AO22">
-        <v>9513</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="23" spans="1:41">
@@ -3328,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5642.578115155247</v>
+        <v>5330.539154475424</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>700000</v>
+        <v>36622.21</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3349,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>351605</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>245579</v>
+        <v>371795</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3361,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>597184</v>
+        <v>371795</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -3370,28 +3307,28 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>4631</v>
+        <v>598</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="T23">
-        <v>4631</v>
+        <v>10298</v>
       </c>
       <c r="U23">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z23">
         <v>1</v>
@@ -3412,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>623636.9</v>
+        <v>484307</v>
       </c>
       <c r="AG23">
-        <v>601815</v>
+        <v>382093</v>
       </c>
       <c r="AH23">
-        <v>0.007695055789569884</v>
+        <v>0.02695155367933985</v>
       </c>
       <c r="AI23">
-        <v>0.58424100429534</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
         <v>1986</v>
@@ -3439,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="AO23">
-        <v>455020.475</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3450,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5122.180090208862</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>100000</v>
+        <v>276282.015</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3471,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>351605</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>245579</v>
+        <v>371795</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3483,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>597184</v>
+        <v>371795</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -3492,28 +3429,28 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4631</v>
+        <v>598</v>
       </c>
       <c r="R24">
         <v>0</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="T24">
-        <v>4631</v>
+        <v>10298</v>
       </c>
       <c r="U24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z24">
         <v>1</v>
@@ -3534,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>1093204.9</v>
+        <v>436250</v>
       </c>
       <c r="AG24">
-        <v>601815</v>
+        <v>382093</v>
       </c>
       <c r="AH24">
-        <v>0.007695055789569884</v>
+        <v>0.02695155367933985</v>
       </c>
       <c r="AI24">
-        <v>0.58424100429534</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
         <v>1986</v>
@@ -3561,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="AO24">
-        <v>36622.21</v>
+        <v>277389.5</v>
       </c>
     </row>
     <row r="25" spans="1:41">
@@ -3572,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3156.723844635973</v>
+        <v>1836.014008604312</v>
       </c>
       <c r="D25">
-        <v>351605</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>35000</v>
+        <v>103070</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3593,10 +3530,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>351605</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>245579</v>
+        <v>371795</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3605,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>597184</v>
+        <v>371795</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -3614,28 +3551,28 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>4631</v>
+        <v>598</v>
       </c>
       <c r="R25">
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="T25">
-        <v>4631</v>
+        <v>10298</v>
       </c>
       <c r="U25">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X25">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z25">
         <v>1</v>
@@ -3656,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>1353871.516666667</v>
+        <v>842494</v>
       </c>
       <c r="AG25">
-        <v>601815</v>
+        <v>382093</v>
       </c>
       <c r="AH25">
-        <v>0.007695055789569884</v>
+        <v>0.02695155367933985</v>
       </c>
       <c r="AI25">
-        <v>0.58424100429534</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
         <v>1986</v>
@@ -3683,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="AO25">
-        <v>276282.015</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:41">
@@ -3694,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>6869.640636356445</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>180000</v>
+        <v>455020.475</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3715,10 +3652,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>351605</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>245579</v>
+        <v>371795</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3727,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>597184</v>
+        <v>371795</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3736,28 +3673,28 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>4631</v>
+        <v>598</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="T26">
-        <v>4631</v>
+        <v>10298</v>
       </c>
       <c r="U26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X26">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z26">
         <v>1</v>
@@ -3778,16 +3715,16 @@
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>753508</v>
       </c>
       <c r="AG26">
-        <v>601815</v>
+        <v>382093</v>
       </c>
       <c r="AH26">
-        <v>0.007695055789569884</v>
+        <v>0.02695155367933985</v>
       </c>
       <c r="AI26">
-        <v>0.58424100429534</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
         <v>1986</v>
@@ -3796,16 +3733,16 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN26">
         <v>1</v>
       </c>
       <c r="AO26">
-        <v>88599.985</v>
+        <v>125500</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3816,13 +3753,13 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1657.651524528445</v>
+        <v>7633.969039669125</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>300000</v>
+        <v>4850</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3837,10 +3774,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>351605</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>245579</v>
+        <v>542502</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3849,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>597184</v>
+        <v>542502</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -3858,28 +3795,28 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>4631</v>
+        <v>0</v>
       </c>
       <c r="R27">
         <v>0</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>244857</v>
       </c>
       <c r="T27">
-        <v>4631</v>
+        <v>244857</v>
       </c>
       <c r="U27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X27">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z27">
         <v>1</v>
@@ -3900,16 +3837,16 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>1126760.85</v>
+        <v>1297234</v>
       </c>
       <c r="AG27">
-        <v>601815</v>
+        <v>787359</v>
       </c>
       <c r="AH27">
-        <v>0.007695055789569884</v>
+        <v>0.3109852049700327</v>
       </c>
       <c r="AI27">
-        <v>0.58424100429534</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
         <v>1986</v>
@@ -3921,13 +3858,13 @@
         <v>1</v>
       </c>
       <c r="AM27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27">
         <v>1</v>
       </c>
       <c r="AO27">
-        <v>103070</v>
+        <v>32284</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3938,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>7200.731056811853</v>
+        <v>5176.058803160127</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>183000</v>
+        <v>80000</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3959,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>493735</v>
+        <v>542502</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3971,7 +3908,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>763735</v>
+        <v>542502</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -3980,25 +3917,25 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>244857</v>
       </c>
       <c r="T28">
-        <v>669</v>
+        <v>244857</v>
       </c>
       <c r="U28">
         <v>7</v>
       </c>
       <c r="V28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X28">
         <v>17</v>
@@ -4022,16 +3959,16 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>747460</v>
+        <v>1384810</v>
       </c>
       <c r="AG28">
-        <v>764404</v>
+        <v>787359</v>
       </c>
       <c r="AH28">
-        <v>0.0008751916525816192</v>
+        <v>0.3109852049700327</v>
       </c>
       <c r="AI28">
-        <v>0.3532163620284561</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
         <v>1986</v>
@@ -4043,13 +3980,13 @@
         <v>1</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN28">
         <v>1</v>
       </c>
       <c r="AO28">
-        <v>9513</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -4060,13 +3997,13 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>5919.20956823756</v>
+        <v>3382.563653843273</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>700000</v>
+        <v>277389.5</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -4081,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>493735</v>
+        <v>542502</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -4093,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>763735</v>
+        <v>542502</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -4102,25 +4039,25 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>0</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>244857</v>
       </c>
       <c r="T29">
-        <v>669</v>
+        <v>244857</v>
       </c>
       <c r="U29">
         <v>7</v>
       </c>
       <c r="V29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X29">
         <v>17</v>
@@ -4144,16 +4081,16 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>747460</v>
+        <v>766749</v>
       </c>
       <c r="AG29">
-        <v>764404</v>
+        <v>787359</v>
       </c>
       <c r="AH29">
-        <v>0.0008751916525816192</v>
+        <v>0.3109852049700327</v>
       </c>
       <c r="AI29">
-        <v>0.3532163620284561</v>
+        <v>0</v>
       </c>
       <c r="AJ29">
         <v>1986</v>
@@ -4171,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="AO29">
-        <v>455020.475</v>
+        <v>621478</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -4182,13 +4119,13 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>5295.682695961288</v>
+        <v>1895.214690888655</v>
       </c>
       <c r="D30">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -4203,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>493735</v>
+        <v>542502</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4215,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>763735</v>
+        <v>542502</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -4224,25 +4161,25 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>244857</v>
       </c>
       <c r="T30">
-        <v>669</v>
+        <v>244857</v>
       </c>
       <c r="U30">
         <v>7</v>
       </c>
       <c r="V30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X30">
         <v>17</v>
@@ -4266,16 +4203,16 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>747460</v>
+        <v>1049460</v>
       </c>
       <c r="AG30">
-        <v>764404</v>
+        <v>787359</v>
       </c>
       <c r="AH30">
-        <v>0.0008751916525816192</v>
+        <v>0.3109852049700327</v>
       </c>
       <c r="AI30">
-        <v>0.3532163620284561</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
         <v>1986</v>
@@ -4293,7 +4230,7 @@
         <v>1</v>
       </c>
       <c r="AO30">
-        <v>36622.21</v>
+        <v>299595</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -4304,13 +4241,13 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>3212.740625904757</v>
+        <v>7026.178156858586</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4325,10 +4262,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>270000</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>493735</v>
+        <v>542502</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -4337,7 +4274,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>763735</v>
+        <v>542502</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -4346,25 +4283,25 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>669</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>0</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>244857</v>
       </c>
       <c r="T31">
-        <v>669</v>
+        <v>244857</v>
       </c>
       <c r="U31">
         <v>7</v>
       </c>
       <c r="V31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X31">
         <v>17</v>
@@ -4388,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>747460</v>
+        <v>642604</v>
       </c>
       <c r="AG31">
-        <v>764404</v>
+        <v>787359</v>
       </c>
       <c r="AH31">
-        <v>0.0008751916525816192</v>
+        <v>0.3109852049700327</v>
       </c>
       <c r="AI31">
-        <v>0.3532163620284561</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
         <v>1986</v>
@@ -4409,2330 +4346,12 @@
         <v>1</v>
       </c>
       <c r="AM31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN31">
         <v>1</v>
       </c>
       <c r="AO31">
-        <v>276282.015</v>
-      </c>
-    </row>
-    <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>6796.064220835697</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>180000</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>270000</v>
-      </c>
-      <c r="K32">
-        <v>493735</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>763735</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>669</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>669</v>
-      </c>
-      <c r="U32">
-        <v>7</v>
-      </c>
-      <c r="V32">
-        <v>7</v>
-      </c>
-      <c r="W32">
-        <v>3</v>
-      </c>
-      <c r="X32">
-        <v>17</v>
-      </c>
-      <c r="Z32">
-        <v>1</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>764404</v>
-      </c>
-      <c r="AH32">
-        <v>0.0008751916525816192</v>
-      </c>
-      <c r="AI32">
-        <v>0.3532163620284561</v>
-      </c>
-      <c r="AJ32">
-        <v>1986</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>88599.985</v>
-      </c>
-    </row>
-    <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>1716.389195271215</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>300000</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>270000</v>
-      </c>
-      <c r="K33">
-        <v>493735</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>763735</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>669</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>669</v>
-      </c>
-      <c r="U33">
-        <v>7</v>
-      </c>
-      <c r="V33">
-        <v>7</v>
-      </c>
-      <c r="W33">
-        <v>3</v>
-      </c>
-      <c r="X33">
-        <v>17</v>
-      </c>
-      <c r="Z33">
-        <v>1</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>747460</v>
-      </c>
-      <c r="AG33">
-        <v>764404</v>
-      </c>
-      <c r="AH33">
-        <v>0.0008751916525816192</v>
-      </c>
-      <c r="AI33">
-        <v>0.3532163620284561</v>
-      </c>
-      <c r="AJ33">
-        <v>1986</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
-      <c r="AL33">
-        <v>1</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>103070</v>
-      </c>
-    </row>
-    <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>2286.013198234259</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>2500000</v>
-      </c>
-      <c r="K34">
-        <v>441315</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>2941315</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>7457</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>7457</v>
-      </c>
-      <c r="U34">
-        <v>5</v>
-      </c>
-      <c r="V34">
-        <v>7</v>
-      </c>
-      <c r="W34">
-        <v>2</v>
-      </c>
-      <c r="X34">
-        <v>14</v>
-      </c>
-      <c r="Z34">
-        <v>1</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>10602689</v>
-      </c>
-      <c r="AG34">
-        <v>2948772</v>
-      </c>
-      <c r="AH34">
-        <v>0.002528849297266795</v>
-      </c>
-      <c r="AI34">
-        <v>0.8478105462205963</v>
-      </c>
-      <c r="AJ34">
-        <v>1986</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
-      <c r="AL34">
-        <v>1</v>
-      </c>
-      <c r="AM34">
-        <v>0</v>
-      </c>
-      <c r="AN34">
-        <v>1</v>
-      </c>
-      <c r="AO34">
-        <v>4850</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>7449.08671983612</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>9513</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>2500000</v>
-      </c>
-      <c r="K35">
-        <v>441315</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>2941315</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>7457</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>7457</v>
-      </c>
-      <c r="U35">
-        <v>5</v>
-      </c>
-      <c r="V35">
-        <v>7</v>
-      </c>
-      <c r="W35">
-        <v>2</v>
-      </c>
-      <c r="X35">
-        <v>14</v>
-      </c>
-      <c r="Z35">
-        <v>1</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>10535466</v>
-      </c>
-      <c r="AG35">
-        <v>2948772</v>
-      </c>
-      <c r="AH35">
-        <v>0.002528849297266795</v>
-      </c>
-      <c r="AI35">
-        <v>0.8478105462205963</v>
-      </c>
-      <c r="AJ35">
-        <v>1986</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
-      <c r="AL35">
-        <v>1</v>
-      </c>
-      <c r="AM35">
-        <v>0</v>
-      </c>
-      <c r="AN35">
-        <v>1</v>
-      </c>
-      <c r="AO35">
-        <v>4850</v>
-      </c>
-    </row>
-    <row r="36" spans="1:41">
-      <c r="A36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>5412.131646018807</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>36622.21</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>2500000</v>
-      </c>
-      <c r="K36">
-        <v>441315</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>2941315</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>7457</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>7457</v>
-      </c>
-      <c r="U36">
-        <v>5</v>
-      </c>
-      <c r="V36">
-        <v>7</v>
-      </c>
-      <c r="W36">
-        <v>2</v>
-      </c>
-      <c r="X36">
-        <v>14</v>
-      </c>
-      <c r="Z36">
-        <v>1</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
-      </c>
-      <c r="AE36">
-        <v>0</v>
-      </c>
-      <c r="AF36">
-        <v>6011154</v>
-      </c>
-      <c r="AG36">
-        <v>2948772</v>
-      </c>
-      <c r="AH36">
-        <v>0.002528849297266795</v>
-      </c>
-      <c r="AI36">
-        <v>0.8478105462205963</v>
-      </c>
-      <c r="AJ36">
-        <v>1986</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>1</v>
-      </c>
-      <c r="AM36">
-        <v>1</v>
-      </c>
-      <c r="AN36">
-        <v>1</v>
-      </c>
-      <c r="AO36">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:41">
-      <c r="A37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>3252.634165082374</v>
-      </c>
-      <c r="D37">
-        <v>2500000</v>
-      </c>
-      <c r="E37">
-        <v>276282.015</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>2500000</v>
-      </c>
-      <c r="K37">
-        <v>441315</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>2941315</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>7457</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>7457</v>
-      </c>
-      <c r="U37">
-        <v>5</v>
-      </c>
-      <c r="V37">
-        <v>7</v>
-      </c>
-      <c r="W37">
-        <v>2</v>
-      </c>
-      <c r="X37">
-        <v>14</v>
-      </c>
-      <c r="Z37">
-        <v>1</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>11105000</v>
-      </c>
-      <c r="AG37">
-        <v>2948772</v>
-      </c>
-      <c r="AH37">
-        <v>0.002528849297266795</v>
-      </c>
-      <c r="AI37">
-        <v>0.8478105462205963</v>
-      </c>
-      <c r="AJ37">
-        <v>1986</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>1</v>
-      </c>
-      <c r="AM37">
-        <v>1</v>
-      </c>
-      <c r="AN37">
-        <v>1</v>
-      </c>
-      <c r="AO37">
-        <v>277389.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:41">
-      <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>1775.027517189621</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>103070</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>2500000</v>
-      </c>
-      <c r="K38">
-        <v>441315</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>2941315</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>7457</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>7457</v>
-      </c>
-      <c r="U38">
-        <v>5</v>
-      </c>
-      <c r="V38">
-        <v>7</v>
-      </c>
-      <c r="W38">
-        <v>2</v>
-      </c>
-      <c r="X38">
-        <v>14</v>
-      </c>
-      <c r="Z38">
-        <v>1</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-      <c r="AF38">
-        <v>8243214</v>
-      </c>
-      <c r="AG38">
-        <v>2948772</v>
-      </c>
-      <c r="AH38">
-        <v>0.002528849297266795</v>
-      </c>
-      <c r="AI38">
-        <v>0.8478105462205963</v>
-      </c>
-      <c r="AJ38">
-        <v>1986</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
-      <c r="AL38">
-        <v>1</v>
-      </c>
-      <c r="AM38">
-        <v>1</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:41">
-      <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>5996.49696468919</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>455020.475</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>2500000</v>
-      </c>
-      <c r="K39">
-        <v>441315</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>2941315</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>7457</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>7457</v>
-      </c>
-      <c r="U39">
-        <v>5</v>
-      </c>
-      <c r="V39">
-        <v>7</v>
-      </c>
-      <c r="W39">
-        <v>2</v>
-      </c>
-      <c r="X39">
-        <v>14</v>
-      </c>
-      <c r="Z39">
-        <v>1</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>6615978</v>
-      </c>
-      <c r="AG39">
-        <v>2948772</v>
-      </c>
-      <c r="AH39">
-        <v>0.002528849297266795</v>
-      </c>
-      <c r="AI39">
-        <v>0.8478105462205963</v>
-      </c>
-      <c r="AJ39">
-        <v>1986</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>1</v>
-      </c>
-      <c r="AM39">
-        <v>1</v>
-      </c>
-      <c r="AN39">
-        <v>1</v>
-      </c>
-      <c r="AO39">
-        <v>125500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:41">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>2361.056581219794</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>371795</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>371795</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>598</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>9700</v>
-      </c>
-      <c r="T40">
-        <v>10298</v>
-      </c>
-      <c r="U40">
-        <v>5</v>
-      </c>
-      <c r="V40">
-        <v>5</v>
-      </c>
-      <c r="W40">
-        <v>6</v>
-      </c>
-      <c r="X40">
-        <v>16</v>
-      </c>
-      <c r="Z40">
-        <v>1</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>346667</v>
-      </c>
-      <c r="AG40">
-        <v>382093</v>
-      </c>
-      <c r="AH40">
-        <v>0.02695155367933985</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>1986</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>1</v>
-      </c>
-      <c r="AM40">
-        <v>0</v>
-      </c>
-      <c r="AN40">
-        <v>1</v>
-      </c>
-      <c r="AO40">
-        <v>4850</v>
-      </c>
-    </row>
-    <row r="41" spans="1:41">
-      <c r="A41" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>7580.275568826287</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>9513</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>371795</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>371795</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>598</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>9700</v>
-      </c>
-      <c r="T41">
-        <v>10298</v>
-      </c>
-      <c r="U41">
-        <v>5</v>
-      </c>
-      <c r="V41">
-        <v>5</v>
-      </c>
-      <c r="W41">
-        <v>6</v>
-      </c>
-      <c r="X41">
-        <v>16</v>
-      </c>
-      <c r="Z41">
-        <v>1</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>1417472</v>
-      </c>
-      <c r="AG41">
-        <v>382093</v>
-      </c>
-      <c r="AH41">
-        <v>0.02695155367933985</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>1986</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>1</v>
-      </c>
-      <c r="AM41">
-        <v>0</v>
-      </c>
-      <c r="AN41">
-        <v>1</v>
-      </c>
-      <c r="AO41">
-        <v>4850</v>
-      </c>
-    </row>
-    <row r="42" spans="1:41">
-      <c r="A42" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>5330.539154475424</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>36622.21</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>371795</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>371795</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>598</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>9700</v>
-      </c>
-      <c r="T42">
-        <v>10298</v>
-      </c>
-      <c r="U42">
-        <v>5</v>
-      </c>
-      <c r="V42">
-        <v>5</v>
-      </c>
-      <c r="W42">
-        <v>6</v>
-      </c>
-      <c r="X42">
-        <v>16</v>
-      </c>
-      <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AB42">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>484307</v>
-      </c>
-      <c r="AG42">
-        <v>382093</v>
-      </c>
-      <c r="AH42">
-        <v>0.02695155367933985</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>1986</v>
-      </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
-        <v>1</v>
-      </c>
-      <c r="AM42">
-        <v>1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:41">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>3314.741082534716</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>276282.015</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>371795</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>371795</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>598</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>9700</v>
-      </c>
-      <c r="T43">
-        <v>10298</v>
-      </c>
-      <c r="U43">
-        <v>5</v>
-      </c>
-      <c r="V43">
-        <v>5</v>
-      </c>
-      <c r="W43">
-        <v>6</v>
-      </c>
-      <c r="X43">
-        <v>16</v>
-      </c>
-      <c r="Z43">
-        <v>1</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>436250</v>
-      </c>
-      <c r="AG43">
-        <v>382093</v>
-      </c>
-      <c r="AH43">
-        <v>0.02695155367933985</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>1986</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>1</v>
-      </c>
-      <c r="AM43">
-        <v>1</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>277389.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:41">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>1836.014008604312</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>103070</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>371795</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>371795</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>598</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>9700</v>
-      </c>
-      <c r="T44">
-        <v>10298</v>
-      </c>
-      <c r="U44">
-        <v>5</v>
-      </c>
-      <c r="V44">
-        <v>5</v>
-      </c>
-      <c r="W44">
-        <v>6</v>
-      </c>
-      <c r="X44">
-        <v>16</v>
-      </c>
-      <c r="Z44">
-        <v>1</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
-        <v>842494</v>
-      </c>
-      <c r="AG44">
-        <v>382093</v>
-      </c>
-      <c r="AH44">
-        <v>0.02695155367933985</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>1986</v>
-      </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>1</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:41">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>6114.227214287786</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>455020.475</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>371795</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>371795</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>598</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>9700</v>
-      </c>
-      <c r="T45">
-        <v>10298</v>
-      </c>
-      <c r="U45">
-        <v>5</v>
-      </c>
-      <c r="V45">
-        <v>5</v>
-      </c>
-      <c r="W45">
-        <v>6</v>
-      </c>
-      <c r="X45">
-        <v>16</v>
-      </c>
-      <c r="Z45">
-        <v>1</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
-        <v>753508</v>
-      </c>
-      <c r="AG45">
-        <v>382093</v>
-      </c>
-      <c r="AH45">
-        <v>0.02695155367933985</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>1986</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>1</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>125500</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41">
-      <c r="A46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>7633.969039669125</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>4850</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>542502</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>542502</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>244857</v>
-      </c>
-      <c r="T46">
-        <v>244857</v>
-      </c>
-      <c r="U46">
-        <v>7</v>
-      </c>
-      <c r="V46">
-        <v>4</v>
-      </c>
-      <c r="W46">
-        <v>6</v>
-      </c>
-      <c r="X46">
-        <v>17</v>
-      </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <v>1297234</v>
-      </c>
-      <c r="AG46">
-        <v>787359</v>
-      </c>
-      <c r="AH46">
-        <v>0.3109852049700327</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>1986</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <v>1</v>
-      </c>
-      <c r="AM46">
-        <v>0</v>
-      </c>
-      <c r="AN46">
-        <v>1</v>
-      </c>
-      <c r="AO46">
-        <v>32284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:41">
-      <c r="A47" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>5176.058803160127</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>80000</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>542502</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>542502</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>244857</v>
-      </c>
-      <c r="T47">
-        <v>244857</v>
-      </c>
-      <c r="U47">
-        <v>7</v>
-      </c>
-      <c r="V47">
-        <v>4</v>
-      </c>
-      <c r="W47">
-        <v>6</v>
-      </c>
-      <c r="X47">
-        <v>17</v>
-      </c>
-      <c r="Z47">
-        <v>1</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>1384810</v>
-      </c>
-      <c r="AG47">
-        <v>787359</v>
-      </c>
-      <c r="AH47">
-        <v>0.3109852049700327</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <v>1986</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>1</v>
-      </c>
-      <c r="AM47">
-        <v>1</v>
-      </c>
-      <c r="AN47">
-        <v>1</v>
-      </c>
-      <c r="AO47">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:41">
-      <c r="A48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>3382.563653843273</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>277389.5</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>542502</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>542502</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>244857</v>
-      </c>
-      <c r="T48">
-        <v>244857</v>
-      </c>
-      <c r="U48">
-        <v>7</v>
-      </c>
-      <c r="V48">
-        <v>4</v>
-      </c>
-      <c r="W48">
-        <v>6</v>
-      </c>
-      <c r="X48">
-        <v>17</v>
-      </c>
-      <c r="Z48">
-        <v>1</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>766749</v>
-      </c>
-      <c r="AG48">
-        <v>787359</v>
-      </c>
-      <c r="AH48">
-        <v>0.3109852049700327</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>1986</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>1</v>
-      </c>
-      <c r="AM48">
-        <v>1</v>
-      </c>
-      <c r="AN48">
-        <v>1</v>
-      </c>
-      <c r="AO48">
-        <v>621478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:41">
-      <c r="A49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>1895.214690888655</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>10000</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>542502</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>542502</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>244857</v>
-      </c>
-      <c r="T49">
-        <v>244857</v>
-      </c>
-      <c r="U49">
-        <v>7</v>
-      </c>
-      <c r="V49">
-        <v>4</v>
-      </c>
-      <c r="W49">
-        <v>6</v>
-      </c>
-      <c r="X49">
-        <v>17</v>
-      </c>
-      <c r="Z49">
-        <v>1</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AB49">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <v>0</v>
-      </c>
-      <c r="AD49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
-        <v>1049460</v>
-      </c>
-      <c r="AG49">
-        <v>787359</v>
-      </c>
-      <c r="AH49">
-        <v>0.3109852049700327</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>1986</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>1</v>
-      </c>
-      <c r="AM49">
-        <v>1</v>
-      </c>
-      <c r="AN49">
-        <v>1</v>
-      </c>
-      <c r="AO49">
-        <v>299595</v>
-      </c>
-    </row>
-    <row r="50" spans="1:41">
-      <c r="A50" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>7026.178156858586</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>542502</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>542502</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>244857</v>
-      </c>
-      <c r="T50">
-        <v>244857</v>
-      </c>
-      <c r="U50">
-        <v>7</v>
-      </c>
-      <c r="V50">
-        <v>4</v>
-      </c>
-      <c r="W50">
-        <v>6</v>
-      </c>
-      <c r="X50">
-        <v>17</v>
-      </c>
-      <c r="Z50">
-        <v>1</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <v>0</v>
-      </c>
-      <c r="AD50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
-        <v>642604</v>
-      </c>
-      <c r="AG50">
-        <v>787359</v>
-      </c>
-      <c r="AH50">
-        <v>0.3109852049700327</v>
-      </c>
-      <c r="AI50">
-        <v>0</v>
-      </c>
-      <c r="AJ50">
-        <v>1986</v>
-      </c>
-      <c r="AK50">
-        <v>0</v>
-      </c>
-      <c r="AL50">
-        <v>1</v>
-      </c>
-      <c r="AM50">
-        <v>0</v>
-      </c>
-      <c r="AN50">
-        <v>1</v>
-      </c>
-      <c r="AO50">
         <v>20000</v>
       </c>
     </row>
